--- a/listeseleves/X_ICM2021.xlsx
+++ b/listeseleves/X_ICM2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bureau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1D426C-2F93-40A2-9EDA-DF7C2AD73DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E43DA9-A19B-435D-B69F-1040F19316C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DD7F562D-47BA-4FFF-8626-AE5C4B4CD126}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="103">
   <si>
     <t>NOM</t>
   </si>
@@ -323,25 +323,28 @@
     <t>Aurélien</t>
   </si>
   <si>
-    <t>Remplir la colonne "Notes" uniquement avec :</t>
-  </si>
-  <si>
-    <t>des notes en valeur numérique, dont le séparateur des parties entière et décimale est un point "." ;</t>
-  </si>
-  <si>
-    <t>si l'élève est absent et a présenté un justificatif à l'administration, écrire "AJ" ;</t>
-  </si>
-  <si>
-    <t>si l'élève est absent et n'a pas présenté de justificatif à l'administration, écrire "ANJ".</t>
-  </si>
-  <si>
     <t>Déposer le document sur Prométhée AU FORMAT .xlsx</t>
   </si>
   <si>
-    <t>Renommer le document en changeant la partie précédent le séparateur "_" avec le nom de l'évaluation (espaces autorisés).</t>
-  </si>
-  <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Remplir la colonne "Note" uniquement avec :</t>
+  </si>
+  <si>
+    <t>si l'élève est absent et a présenté un justificatif à l'administration, écrire "40" ;</t>
+  </si>
+  <si>
+    <t>si l'élève est absent et n'a pas présenté de justificatif à l'administration, écrire "30".</t>
+  </si>
+  <si>
+    <t>des notes en valeur numérique RAMENEES SUR 20, dont le séparateur des parties entière et décimale est un point "." ;</t>
+  </si>
+  <si>
+    <t>Renommer le document en changeant la partie précédant le séparateur "_" avec le nom de l'évaluation (exemple : "Rattrapages décembre - MMC_ICM2021.xlsx").</t>
+  </si>
+  <si>
+    <t>AUCUN CASE NE DOIT RESTER VIDE, en cas de doute, écrire "40".</t>
   </si>
 </sst>
 </file>
@@ -435,12 +438,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -759,7 +764,7 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -777,6 +782,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1">
+        <f>COUNTA(B2:B51)</f>
+        <v>50</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -786,16 +795,9 @@
         <v>25</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="E2" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
+      <c r="E2" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -805,16 +807,16 @@
         <v>55</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="E3" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+      <c r="E3" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -824,18 +826,12 @@
         <v>57</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="E4" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
+      <c r="F4" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -845,11 +841,11 @@
         <v>35</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="E5" s="8" t="s">
-        <v>101</v>
+      <c r="E5" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -866,11 +862,11 @@
         <v>39</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="E6" s="8" t="s">
-        <v>101</v>
+      <c r="E6" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -887,6 +883,9 @@
         <v>25</v>
       </c>
       <c r="C7" s="3"/>
+      <c r="E7" s="6" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -896,9 +895,6 @@
         <v>60</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="E8" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -908,6 +904,9 @@
         <v>62</v>
       </c>
       <c r="C9" s="3"/>
+      <c r="E9" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1291,11 +1290,10 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B53">
     <sortCondition ref="A53"/>
   </sortState>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="F5:L5"/>
     <mergeCell ref="F6:L6"/>
     <mergeCell ref="E3:L3"/>
-    <mergeCell ref="F4:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
